--- a/Tests/Validation/Wheat/FARAwardPhenology/Observed.xlsx
+++ b/Tests/Validation/Wheat/FARAwardPhenology/Observed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\FAR2304-002RTX-Output-1\Milestone4\LimitedData\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Repos\ApsimX\Tests\Validation\Wheat\FARAwardPhenology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E6BF9B-FB1A-4464-8379-471BF94B6A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB738DF-09A8-4447-B279-F8C5B9F078B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28690" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="1" r:id="rId1"/>
@@ -49,9 +49,6 @@
     <t>flowering_date</t>
   </si>
   <si>
-    <t>flowering_days</t>
-  </si>
-  <si>
     <t>plant_population</t>
   </si>
   <si>
@@ -815,6 +812,9 @@
   </si>
   <si>
     <t>TrialsSiteFARAwardTrial_283</t>
+  </si>
+  <si>
+    <t>Wheat.Phenology.FloweringDAS</t>
   </si>
 </sst>
 </file>
@@ -1184,15 +1184,15 @@
   <dimension ref="A1:L230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="73.140625" customWidth="1"/>
+    <col min="1" max="1" width="73.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1221,24 +1221,24 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>2020</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2">
         <v>-35.970000000000041</v>
@@ -1247,7 +1247,7 @@
         <v>146.6700000000022</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" s="2">
         <v>43946</v>
@@ -1265,15 +1265,15 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>2020</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3">
         <v>-35.860000000000042</v>
@@ -1282,7 +1282,7 @@
         <v>147.0000000000023</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3" s="2">
         <v>43906</v>
@@ -1300,15 +1300,15 @@
         <v>230</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>2020</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4">
         <v>-35.860000000000042</v>
@@ -1317,7 +1317,7 @@
         <v>146.12000000000219</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" s="2">
         <v>43963</v>
@@ -1335,15 +1335,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>2020</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5">
         <v>-35.640000000000043</v>
@@ -1352,7 +1352,7 @@
         <v>147.0000000000023</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" s="2">
         <v>43966</v>
@@ -1370,15 +1370,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>2020</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6">
         <v>-35.860000000000042</v>
@@ -1387,7 +1387,7 @@
         <v>146.6700000000022</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G6" s="2">
         <v>43910</v>
@@ -1405,15 +1405,15 @@
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7">
         <v>2020</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7">
         <v>-35.860000000000042</v>
@@ -1422,7 +1422,7 @@
         <v>146.6700000000022</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G7" s="2">
         <v>43910</v>
@@ -1440,15 +1440,15 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8">
         <v>2020</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8">
         <v>-35.640000000000043</v>
@@ -1457,7 +1457,7 @@
         <v>147.0000000000023</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8" s="2">
         <v>43966</v>
@@ -1475,15 +1475,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9">
         <v>2020</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9">
         <v>-34.870000000000047</v>
@@ -1492,7 +1492,7 @@
         <v>149.6400000000026</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G9" s="2">
         <v>43871</v>
@@ -1513,15 +1513,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10">
         <v>2020</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10">
         <v>-34.870000000000047</v>
@@ -1530,7 +1530,7 @@
         <v>149.4200000000026</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G10" s="2">
         <v>43911</v>
@@ -1545,15 +1545,15 @@
         <v>226</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11">
         <v>2020</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11">
         <v>-34.870000000000047</v>
@@ -1562,7 +1562,7 @@
         <v>149.6400000000026</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G11" s="2">
         <v>43905</v>
@@ -1580,15 +1580,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12">
         <v>2020</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12">
         <v>-34.980000000000047</v>
@@ -1597,7 +1597,7 @@
         <v>149.6400000000026</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G12" s="2">
         <v>43886</v>
@@ -1615,15 +1615,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13">
         <v>2020</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13">
         <v>-34.980000000000047</v>
@@ -1632,7 +1632,7 @@
         <v>149.6400000000026</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G13" s="2">
         <v>43886</v>
@@ -1650,15 +1650,15 @@
         <v>225</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14">
         <v>2020</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14">
         <v>-37.180000000000042</v>
@@ -1667,7 +1667,7 @@
         <v>140.7300000000015</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G14" s="2">
         <v>43967</v>
@@ -1685,15 +1685,15 @@
         <v>305</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15">
         <v>2020</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15">
         <v>-37.180000000000042</v>
@@ -1702,7 +1702,7 @@
         <v>140.7300000000015</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G15" s="2">
         <v>43972</v>
@@ -1720,15 +1720,15 @@
         <v>305</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16">
         <v>2020</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16">
         <v>-37.070000000000043</v>
@@ -1737,7 +1737,7 @@
         <v>140.7300000000015</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G16" s="2">
         <v>43973</v>
@@ -1755,15 +1755,15 @@
         <v>305</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17">
         <v>2020</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17">
         <v>-37.180000000000042</v>
@@ -1772,7 +1772,7 @@
         <v>140.29000000000141</v>
       </c>
       <c r="F17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G17" s="2">
         <v>43967</v>
@@ -1790,15 +1790,15 @@
         <v>222</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B18">
         <v>2020</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18">
         <v>-37.510000000000034</v>
@@ -1807,7 +1807,7 @@
         <v>140.7300000000015</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G18" s="2">
         <v>43967</v>
@@ -1825,15 +1825,15 @@
         <v>203</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B19">
         <v>2020</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D19">
         <v>-37.290000000000028</v>
@@ -1842,7 +1842,7 @@
         <v>140.7300000000015</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G19" s="2">
         <v>43949</v>
@@ -1860,15 +1860,15 @@
         <v>222</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B20">
         <v>2020</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20">
         <v>-37.290000000000028</v>
@@ -1877,7 +1877,7 @@
         <v>140.7300000000015</v>
       </c>
       <c r="F20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G20" s="2">
         <v>43947</v>
@@ -1895,15 +1895,15 @@
         <v>222</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B21">
         <v>2020</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D21">
         <v>-37.180000000000042</v>
@@ -1912,7 +1912,7 @@
         <v>139.9600000000014</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G21" s="2">
         <v>43978</v>
@@ -1930,15 +1930,15 @@
         <v>178</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B22">
         <v>2020</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D22">
         <v>-37.180000000000042</v>
@@ -1947,7 +1947,7 @@
         <v>139.9600000000014</v>
       </c>
       <c r="F22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G22" s="2">
         <v>43956</v>
@@ -1965,15 +1965,15 @@
         <v>178</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B23">
         <v>2020</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D23">
         <v>-37.400000000000027</v>
@@ -1982,7 +1982,7 @@
         <v>140.1800000000014</v>
       </c>
       <c r="F23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G23" s="2">
         <v>43968</v>
@@ -2000,15 +2000,15 @@
         <v>178</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B24">
         <v>2020</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D24">
         <v>-37.180000000000042</v>
@@ -2017,7 +2017,7 @@
         <v>140.7300000000015</v>
       </c>
       <c r="F24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G24" s="2">
         <v>43977</v>
@@ -2035,15 +2035,15 @@
         <v>305</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B25">
         <v>2020</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D25">
         <v>-37.070000000000043</v>
@@ -2052,7 +2052,7 @@
         <v>140.7300000000015</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G25" s="2">
         <v>43935</v>
@@ -2070,15 +2070,15 @@
         <v>200</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B26">
         <v>2020</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D26">
         <v>-37.180000000000042</v>
@@ -2087,7 +2087,7 @@
         <v>140.7300000000015</v>
       </c>
       <c r="F26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G26" s="2">
         <v>43969</v>
@@ -2105,15 +2105,15 @@
         <v>305</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B27">
         <v>2020</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D27">
         <v>-37.400000000000027</v>
@@ -2122,7 +2122,7 @@
         <v>140.1800000000014</v>
       </c>
       <c r="F27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G27" s="2">
         <v>43968</v>
@@ -2140,15 +2140,15 @@
         <v>180</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B28">
         <v>2020</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D28">
         <v>-37.510000000000034</v>
@@ -2157,7 +2157,7 @@
         <v>140.40000000000151</v>
       </c>
       <c r="F28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G28" s="2">
         <v>43967</v>
@@ -2175,15 +2175,15 @@
         <v>229</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B29">
         <v>2020</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D29">
         <v>-41.800000000000011</v>
@@ -2192,7 +2192,7 @@
         <v>147.11000000000229</v>
       </c>
       <c r="F29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G29" s="2">
         <v>43936</v>
@@ -2210,15 +2210,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B30">
         <v>2020</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D30">
         <v>-41.800000000000011</v>
@@ -2227,7 +2227,7 @@
         <v>147.11000000000229</v>
       </c>
       <c r="F30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G30" s="2">
         <v>43940</v>
@@ -2245,15 +2245,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B31">
         <v>2020</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D31">
         <v>-41.800000000000011</v>
@@ -2262,7 +2262,7 @@
         <v>147.2200000000023</v>
       </c>
       <c r="F31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G31" s="2">
         <v>43949</v>
@@ -2280,15 +2280,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B32">
         <v>2020</v>
       </c>
       <c r="C32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D32">
         <v>-42.02000000000001</v>
@@ -2297,7 +2297,7 @@
         <v>147.55000000000231</v>
       </c>
       <c r="F32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G32" s="2">
         <v>43910</v>
@@ -2315,15 +2315,15 @@
         <v>165</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B33">
         <v>2020</v>
       </c>
       <c r="C33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D33">
         <v>-42.02000000000001</v>
@@ -2332,7 +2332,7 @@
         <v>147.55000000000231</v>
       </c>
       <c r="F33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G33" s="2">
         <v>43972</v>
@@ -2350,15 +2350,15 @@
         <v>165</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B34">
         <v>2020</v>
       </c>
       <c r="C34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D34">
         <v>-41.690000000000012</v>
@@ -2367,7 +2367,7 @@
         <v>147.4400000000023</v>
       </c>
       <c r="F34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G34" s="2">
         <v>43957</v>
@@ -2385,15 +2385,15 @@
         <v>200</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B35">
         <v>2020</v>
       </c>
       <c r="C35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D35">
         <v>-41.800000000000011</v>
@@ -2402,7 +2402,7 @@
         <v>147.4400000000023</v>
       </c>
       <c r="F35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G35" s="2">
         <v>43958</v>
@@ -2420,15 +2420,15 @@
         <v>200</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B36">
         <v>2020</v>
       </c>
       <c r="C36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D36">
         <v>-41.140000000000008</v>
@@ -2437,7 +2437,7 @@
         <v>146.01000000000221</v>
       </c>
       <c r="F36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G36" s="2">
         <v>43958</v>
@@ -2455,15 +2455,15 @@
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B37">
         <v>2020</v>
       </c>
       <c r="C37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D37">
         <v>-41.140000000000008</v>
@@ -2472,7 +2472,7 @@
         <v>146.01000000000221</v>
       </c>
       <c r="F37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G37" s="2">
         <v>43958</v>
@@ -2490,15 +2490,15 @@
         <v>125</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B38">
         <v>2020</v>
       </c>
       <c r="C38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D38">
         <v>-41.140000000000008</v>
@@ -2507,7 +2507,7 @@
         <v>146.34000000000219</v>
       </c>
       <c r="F38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G38" s="2">
         <v>43966</v>
@@ -2525,15 +2525,15 @@
         <v>125</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B39">
         <v>2020</v>
       </c>
       <c r="C39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D39">
         <v>-41.470000000000013</v>
@@ -2542,7 +2542,7 @@
         <v>146.89000000000229</v>
       </c>
       <c r="F39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G39" s="2">
         <v>43939</v>
@@ -2560,15 +2560,15 @@
         <v>125</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B40">
         <v>2020</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D40">
         <v>-41.690000000000012</v>
@@ -2577,7 +2577,7 @@
         <v>147.33000000000229</v>
       </c>
       <c r="F40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G40" s="2">
         <v>43955</v>
@@ -2595,15 +2595,15 @@
         <v>180</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B41">
         <v>2020</v>
       </c>
       <c r="C41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D41">
         <v>-36.080000000000041</v>
@@ -2612,7 +2612,7 @@
         <v>146.56000000000219</v>
       </c>
       <c r="F41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G41" s="2">
         <v>43926</v>
@@ -2633,15 +2633,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B42">
         <v>2020</v>
       </c>
       <c r="C42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D42">
         <v>-36.080000000000041</v>
@@ -2650,7 +2650,7 @@
         <v>146.45000000000221</v>
       </c>
       <c r="F42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G42" s="2">
         <v>43933</v>
@@ -2668,15 +2668,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B43">
         <v>2020</v>
       </c>
       <c r="C43" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D43">
         <v>-38.17000000000003</v>
@@ -2685,7 +2685,7 @@
         <v>143.92000000000189</v>
       </c>
       <c r="F43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G43" s="2">
         <v>43957</v>
@@ -2703,15 +2703,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B44">
         <v>2020</v>
       </c>
       <c r="C44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D44">
         <v>-37.290000000000028</v>
@@ -2720,7 +2720,7 @@
         <v>143.92000000000189</v>
       </c>
       <c r="F44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G44" s="2">
         <v>43929</v>
@@ -2738,15 +2738,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B45">
         <v>2020</v>
       </c>
       <c r="C45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D45">
         <v>-37.950000000000031</v>
@@ -2755,7 +2755,7 @@
         <v>143.92000000000189</v>
       </c>
       <c r="F45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G45" s="2">
         <v>43936</v>
@@ -2776,15 +2776,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B46">
         <v>2020</v>
       </c>
       <c r="C46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D46">
         <v>-37.840000000000032</v>
@@ -2793,7 +2793,7 @@
         <v>142.71000000000171</v>
       </c>
       <c r="F46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G46" s="2">
         <v>43957</v>
@@ -2811,15 +2811,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B47">
         <v>2020</v>
       </c>
       <c r="C47" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D47">
         <v>-37.840000000000032</v>
@@ -2828,7 +2828,7 @@
         <v>143.70000000000189</v>
       </c>
       <c r="F47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G47" s="2">
         <v>43941</v>
@@ -2846,15 +2846,15 @@
         <v>190</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B48">
         <v>2020</v>
       </c>
       <c r="C48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D48">
         <v>-38.060000000000031</v>
@@ -2863,7 +2863,7 @@
         <v>143.81000000000191</v>
       </c>
       <c r="F48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G48" s="2">
         <v>43915</v>
@@ -2884,15 +2884,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B49">
         <v>2020</v>
       </c>
       <c r="C49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D49">
         <v>-38.17000000000003</v>
@@ -2901,7 +2901,7 @@
         <v>144.03000000000191</v>
       </c>
       <c r="F49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G49" s="2">
         <v>43956</v>
@@ -2922,15 +2922,15 @@
         <v>300</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B50">
         <v>2020</v>
       </c>
       <c r="C50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D50">
         <v>-37.950000000000031</v>
@@ -2939,7 +2939,7 @@
         <v>143.59000000000191</v>
       </c>
       <c r="F50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G50" s="2">
         <v>43958</v>
@@ -2957,15 +2957,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B51">
         <v>2020</v>
       </c>
       <c r="C51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D51">
         <v>-37.730000000000032</v>
@@ -2974,7 +2974,7 @@
         <v>144.2500000000019</v>
       </c>
       <c r="F51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G51" s="2">
         <v>43939</v>
@@ -2995,15 +2995,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B52">
         <v>2020</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D52">
         <v>-37.510000000000034</v>
@@ -3012,7 +3012,7 @@
         <v>142.9300000000018</v>
       </c>
       <c r="F52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G52" s="2">
         <v>43946</v>
@@ -3033,15 +3033,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B53">
         <v>2020</v>
       </c>
       <c r="C53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D53">
         <v>-37.840000000000032</v>
@@ -3050,7 +3050,7 @@
         <v>142.82000000000181</v>
       </c>
       <c r="F53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G53" s="2">
         <v>43927</v>
@@ -3068,15 +3068,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B54">
         <v>2020</v>
       </c>
       <c r="C54" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D54">
         <v>-37.950000000000031</v>
@@ -3085,7 +3085,7 @@
         <v>143.1500000000018</v>
       </c>
       <c r="F54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G54" s="2">
         <v>43948</v>
@@ -3103,15 +3103,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B55">
         <v>2020</v>
       </c>
       <c r="C55" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D55">
         <v>-37.730000000000032</v>
@@ -3120,7 +3120,7 @@
         <v>143.3700000000018</v>
       </c>
       <c r="F55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G55" s="2">
         <v>43948</v>
@@ -3141,15 +3141,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B56">
         <v>2020</v>
       </c>
       <c r="C56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D56">
         <v>-37.400000000000027</v>
@@ -3158,7 +3158,7 @@
         <v>143.70000000000189</v>
       </c>
       <c r="F56" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G56" s="2">
         <v>43930</v>
@@ -3176,15 +3176,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B57">
         <v>2020</v>
       </c>
       <c r="C57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D57">
         <v>-38.060000000000031</v>
@@ -3193,7 +3193,7 @@
         <v>144.03000000000191</v>
       </c>
       <c r="F57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G57" s="2">
         <v>43979</v>
@@ -3211,15 +3211,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B58">
         <v>2020</v>
       </c>
       <c r="C58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D58">
         <v>-37.950000000000031</v>
@@ -3228,7 +3228,7 @@
         <v>143.92000000000189</v>
       </c>
       <c r="F58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G58" s="2">
         <v>43969</v>
@@ -3249,15 +3249,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B59">
         <v>2020</v>
       </c>
       <c r="C59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D59">
         <v>-37.950000000000031</v>
@@ -3266,7 +3266,7 @@
         <v>143.70000000000189</v>
       </c>
       <c r="F59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G59" s="2">
         <v>43937</v>
@@ -3284,15 +3284,15 @@
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B60">
         <v>2020</v>
       </c>
       <c r="C60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D60">
         <v>-37.840000000000032</v>
@@ -3301,7 +3301,7 @@
         <v>143.81000000000191</v>
       </c>
       <c r="F60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G60" s="2">
         <v>43913</v>
@@ -3319,15 +3319,15 @@
         <v>225</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B61">
         <v>2020</v>
       </c>
       <c r="C61" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D61">
         <v>-37.950000000000031</v>
@@ -3336,7 +3336,7 @@
         <v>143.92000000000189</v>
       </c>
       <c r="F61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G61" s="2">
         <v>43950</v>
@@ -3357,15 +3357,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B62">
         <v>2020</v>
       </c>
       <c r="C62" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D62">
         <v>-34.540000000000049</v>
@@ -3374,7 +3374,7 @@
         <v>117.74</v>
       </c>
       <c r="F62" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G62" s="2">
         <v>43975</v>
@@ -3392,15 +3392,15 @@
         <v>266</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B63">
         <v>2020</v>
       </c>
       <c r="C63" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D63">
         <v>-34.540000000000049</v>
@@ -3409,7 +3409,7 @@
         <v>118.29</v>
       </c>
       <c r="F63" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G63" s="2">
         <v>43977</v>
@@ -3427,15 +3427,15 @@
         <v>305</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B64">
         <v>2020</v>
       </c>
       <c r="C64" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D64">
         <v>-34.650000000000048</v>
@@ -3444,7 +3444,7 @@
         <v>117.52</v>
       </c>
       <c r="F64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G64" s="2">
         <v>43977</v>
@@ -3462,15 +3462,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B65">
         <v>2020</v>
       </c>
       <c r="C65" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D65">
         <v>-34.32000000000005</v>
@@ -3479,7 +3479,7 @@
         <v>116.86</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G65" s="2">
         <v>43934</v>
@@ -3497,15 +3497,15 @@
         <v>280</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B66">
         <v>2020</v>
       </c>
       <c r="C66" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D66">
         <v>-34.540000000000049</v>
@@ -3514,7 +3514,7 @@
         <v>117.52</v>
       </c>
       <c r="F66" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G66" s="2">
         <v>43977</v>
@@ -3532,15 +3532,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B67">
         <v>2020</v>
       </c>
       <c r="C67" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D67">
         <v>-34.32000000000005</v>
@@ -3549,7 +3549,7 @@
         <v>117.08</v>
       </c>
       <c r="F67" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G67" s="2">
         <v>43966</v>
@@ -3567,15 +3567,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B68">
         <v>2020</v>
       </c>
       <c r="C68" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D68">
         <v>-34.32000000000005</v>
@@ -3584,7 +3584,7 @@
         <v>117.19</v>
       </c>
       <c r="F68" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G68" s="2">
         <v>43978</v>
@@ -3602,15 +3602,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B69">
         <v>2021</v>
       </c>
       <c r="C69" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D69">
         <v>-35.640000000000043</v>
@@ -3619,7 +3619,7 @@
         <v>147.11000000000229</v>
       </c>
       <c r="F69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G69" s="2">
         <v>44324</v>
@@ -3637,15 +3637,15 @@
         <v>185</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B70">
         <v>2021</v>
       </c>
       <c r="C70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D70">
         <v>-35.750000000000043</v>
@@ -3654,7 +3654,7 @@
         <v>146.6700000000022</v>
       </c>
       <c r="F70" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G70" s="2">
         <v>44317</v>
@@ -3672,15 +3672,15 @@
         <v>300</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B71">
         <v>2021</v>
       </c>
       <c r="C71" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D71">
         <v>-35.860000000000042</v>
@@ -3689,7 +3689,7 @@
         <v>145.7900000000021</v>
       </c>
       <c r="F71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G71" s="2">
         <v>44292</v>
@@ -3707,15 +3707,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B72">
         <v>2021</v>
       </c>
       <c r="C72" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D72">
         <v>-35.860000000000042</v>
@@ -3724,7 +3724,7 @@
         <v>147.0000000000023</v>
       </c>
       <c r="F72" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G72" s="2">
         <v>44273</v>
@@ -3742,15 +3742,15 @@
         <v>225</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B73">
         <v>2021</v>
       </c>
       <c r="C73" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D73">
         <v>-35.970000000000041</v>
@@ -3759,7 +3759,7 @@
         <v>148.10000000000241</v>
       </c>
       <c r="F73" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G73" s="2">
         <v>44283</v>
@@ -3780,15 +3780,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B74">
         <v>2021</v>
       </c>
       <c r="C74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D74">
         <v>-37.510000000000034</v>
@@ -3797,7 +3797,7 @@
         <v>140.1800000000014</v>
       </c>
       <c r="F74" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G74" s="2">
         <v>44331</v>
@@ -3815,15 +3815,15 @@
         <v>178</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B75">
         <v>2021</v>
       </c>
       <c r="C75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D75">
         <v>-37.180000000000042</v>
@@ -3832,7 +3832,7 @@
         <v>140.7300000000015</v>
       </c>
       <c r="F75" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G75" s="2">
         <v>44331</v>
@@ -3850,15 +3850,15 @@
         <v>305</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B76">
         <v>2021</v>
       </c>
       <c r="C76" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D76">
         <v>-37.180000000000042</v>
@@ -3867,7 +3867,7 @@
         <v>140.29000000000141</v>
       </c>
       <c r="F76" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G76" s="2">
         <v>44331</v>
@@ -3885,15 +3885,15 @@
         <v>222</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B77">
         <v>2021</v>
       </c>
       <c r="C77" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D77">
         <v>-37.180000000000042</v>
@@ -3902,7 +3902,7 @@
         <v>139.9600000000014</v>
       </c>
       <c r="F77" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G77" s="2">
         <v>44341</v>
@@ -3920,15 +3920,15 @@
         <v>179</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B78">
         <v>2021</v>
       </c>
       <c r="C78" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D78">
         <v>-37.290000000000028</v>
@@ -3937,7 +3937,7 @@
         <v>140.1800000000014</v>
       </c>
       <c r="F78" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G78" s="2">
         <v>44337</v>
@@ -3958,15 +3958,15 @@
         <v>178</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B79">
         <v>2021</v>
       </c>
       <c r="C79" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D79">
         <v>-37.400000000000027</v>
@@ -3975,7 +3975,7 @@
         <v>140.7300000000015</v>
       </c>
       <c r="F79" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G79" s="2">
         <v>44323</v>
@@ -3993,15 +3993,15 @@
         <v>222</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B80">
         <v>2021</v>
       </c>
       <c r="C80" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D80">
         <v>-37.510000000000034</v>
@@ -4010,7 +4010,7 @@
         <v>140.40000000000151</v>
       </c>
       <c r="F80" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G80" s="2">
         <v>44330</v>
@@ -4028,15 +4028,15 @@
         <v>229</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B81">
         <v>2021</v>
       </c>
       <c r="C81" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D81">
         <v>-37.510000000000034</v>
@@ -4045,7 +4045,7 @@
         <v>140.29000000000141</v>
       </c>
       <c r="F81" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G81" s="2">
         <v>44330</v>
@@ -4063,15 +4063,15 @@
         <v>178</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B82">
         <v>2021</v>
       </c>
       <c r="C82" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D82">
         <v>-37.180000000000042</v>
@@ -4080,7 +4080,7 @@
         <v>140.1800000000014</v>
       </c>
       <c r="F82" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G82" s="2">
         <v>44331</v>
@@ -4098,15 +4098,15 @@
         <v>222</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B83">
         <v>2021</v>
       </c>
       <c r="C83" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D83">
         <v>-37.510000000000034</v>
@@ -4115,7 +4115,7 @@
         <v>140.40000000000151</v>
       </c>
       <c r="F83" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G83" s="2">
         <v>44330</v>
@@ -4133,15 +4133,15 @@
         <v>229</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B84">
         <v>2021</v>
       </c>
       <c r="C84" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D84">
         <v>-37.510000000000034</v>
@@ -4150,7 +4150,7 @@
         <v>140.40000000000151</v>
       </c>
       <c r="F84" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G84" s="2">
         <v>44328</v>
@@ -4171,15 +4171,15 @@
         <v>178</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B85">
         <v>2021</v>
       </c>
       <c r="C85" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D85">
         <v>-37.180000000000042</v>
@@ -4188,7 +4188,7 @@
         <v>140.7300000000015</v>
       </c>
       <c r="F85" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G85" s="2">
         <v>44339</v>
@@ -4206,15 +4206,15 @@
         <v>229</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B86">
         <v>2021</v>
       </c>
       <c r="C86" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D86">
         <v>-37.510000000000034</v>
@@ -4223,7 +4223,7 @@
         <v>140.7300000000015</v>
       </c>
       <c r="F86" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G86" s="2">
         <v>44347</v>
@@ -4241,15 +4241,15 @@
         <v>225</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B87">
         <v>2021</v>
       </c>
       <c r="C87" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D87">
         <v>-42.02000000000001</v>
@@ -4258,7 +4258,7 @@
         <v>147.55000000000231</v>
       </c>
       <c r="F87" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G87" s="2">
         <v>44272</v>
@@ -4276,15 +4276,15 @@
         <v>165</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B88">
         <v>2021</v>
       </c>
       <c r="C88" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D88">
         <v>-41.140000000000008</v>
@@ -4293,7 +4293,7 @@
         <v>146.01000000000221</v>
       </c>
       <c r="F88" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G88" s="2">
         <v>44321</v>
@@ -4311,15 +4311,15 @@
         <v>125</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B89">
         <v>2021</v>
       </c>
       <c r="C89" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D89">
         <v>-41.690000000000012</v>
@@ -4328,7 +4328,7 @@
         <v>147.33000000000229</v>
       </c>
       <c r="F89" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G89" s="2">
         <v>44316</v>
@@ -4346,15 +4346,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B90">
         <v>2021</v>
       </c>
       <c r="C90" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D90">
         <v>-41.690000000000012</v>
@@ -4363,7 +4363,7 @@
         <v>147.11000000000229</v>
       </c>
       <c r="F90" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G90" s="2">
         <v>44280</v>
@@ -4381,15 +4381,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B91">
         <v>2021</v>
       </c>
       <c r="C91" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D91">
         <v>-41.470000000000013</v>
@@ -4398,7 +4398,7 @@
         <v>146.89000000000229</v>
       </c>
       <c r="F91" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G91" s="2">
         <v>44314</v>
@@ -4416,15 +4416,15 @@
         <v>125</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B92">
         <v>2021</v>
       </c>
       <c r="C92" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D92">
         <v>-41.470000000000013</v>
@@ -4433,7 +4433,7 @@
         <v>146.89000000000229</v>
       </c>
       <c r="F92" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G92" s="2">
         <v>44322</v>
@@ -4451,15 +4451,15 @@
         <v>125</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B93">
         <v>2021</v>
       </c>
       <c r="C93" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D93">
         <v>-41.800000000000011</v>
@@ -4468,7 +4468,7 @@
         <v>147.2200000000023</v>
       </c>
       <c r="F93" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G93" s="2">
         <v>44337</v>
@@ -4486,15 +4486,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B94">
         <v>2021</v>
       </c>
       <c r="C94" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D94">
         <v>-41.800000000000011</v>
@@ -4503,7 +4503,7 @@
         <v>147.11000000000229</v>
       </c>
       <c r="F94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G94" s="2">
         <v>44305</v>
@@ -4521,15 +4521,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B95">
         <v>2021</v>
       </c>
       <c r="C95" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D95">
         <v>-41.800000000000011</v>
@@ -4538,7 +4538,7 @@
         <v>147.4400000000023</v>
       </c>
       <c r="F95" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G95" s="2">
         <v>44321</v>
@@ -4556,15 +4556,15 @@
         <v>125</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B96">
         <v>2021</v>
       </c>
       <c r="C96" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D96">
         <v>-41.580000000000013</v>
@@ -4573,7 +4573,7 @@
         <v>147.11000000000229</v>
       </c>
       <c r="F96" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G96" s="2">
         <v>44322</v>
@@ -4591,15 +4591,15 @@
         <v>166</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B97">
         <v>2021</v>
       </c>
       <c r="C97" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D97">
         <v>-36.850000000000037</v>
@@ -4608,7 +4608,7 @@
         <v>142.9300000000018</v>
       </c>
       <c r="F97" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G97" s="2">
         <v>44326</v>
@@ -4626,15 +4626,15 @@
         <v>305</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B98">
         <v>2021</v>
       </c>
       <c r="C98" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D98">
         <v>-36.080000000000041</v>
@@ -4643,7 +4643,7 @@
         <v>146.12000000000219</v>
       </c>
       <c r="F98" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G98" s="2">
         <v>44317</v>
@@ -4661,15 +4661,15 @@
         <v>300</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B99">
         <v>2021</v>
       </c>
       <c r="C99" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D99">
         <v>-36.080000000000041</v>
@@ -4678,7 +4678,7 @@
         <v>146.01000000000221</v>
       </c>
       <c r="F99" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G99" s="2">
         <v>44315</v>
@@ -4696,15 +4696,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B100">
         <v>2021</v>
       </c>
       <c r="C100" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D100">
         <v>-38.17000000000003</v>
@@ -4713,7 +4713,7 @@
         <v>144.03000000000191</v>
       </c>
       <c r="F100" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G100" s="2">
         <v>44319</v>
@@ -4731,15 +4731,15 @@
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B101">
         <v>2021</v>
       </c>
       <c r="C101" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D101">
         <v>-37.950000000000031</v>
@@ -4748,7 +4748,7 @@
         <v>143.92000000000189</v>
       </c>
       <c r="F101" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G101" s="2">
         <v>44286</v>
@@ -4769,15 +4769,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B102">
         <v>2021</v>
       </c>
       <c r="C102" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D102">
         <v>-37.840000000000032</v>
@@ -4786,7 +4786,7 @@
         <v>143.70000000000189</v>
       </c>
       <c r="F102" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G102" s="2">
         <v>44304</v>
@@ -4804,15 +4804,15 @@
         <v>191</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B103">
         <v>2021</v>
       </c>
       <c r="C103" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D103">
         <v>-38.28000000000003</v>
@@ -4821,7 +4821,7 @@
         <v>143.81000000000191</v>
       </c>
       <c r="F103" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G103" s="2">
         <v>44334</v>
@@ -4842,15 +4842,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B104">
         <v>2021</v>
       </c>
       <c r="C104" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D104">
         <v>-37.730000000000032</v>
@@ -4859,7 +4859,7 @@
         <v>142.82000000000181</v>
       </c>
       <c r="F104" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G104" s="2">
         <v>44327</v>
@@ -4877,15 +4877,15 @@
         <v>178</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B105">
         <v>2021</v>
       </c>
       <c r="C105" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D105">
         <v>-37.510000000000034</v>
@@ -4894,7 +4894,7 @@
         <v>142.9300000000018</v>
       </c>
       <c r="F105" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G105" s="2">
         <v>44317</v>
@@ -4915,15 +4915,15 @@
         <v>248</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B106">
         <v>2021</v>
       </c>
       <c r="C106" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D106">
         <v>-37.840000000000032</v>
@@ -4932,7 +4932,7 @@
         <v>142.9300000000018</v>
       </c>
       <c r="F106" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G106" s="2">
         <v>44322</v>
@@ -4950,15 +4950,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B107">
         <v>2021</v>
       </c>
       <c r="C107" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D107">
         <v>-38.060000000000031</v>
@@ -4967,7 +4967,7 @@
         <v>142.3800000000017</v>
       </c>
       <c r="F107" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G107" s="2">
         <v>44294</v>
@@ -4985,15 +4985,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B108">
         <v>2021</v>
       </c>
       <c r="C108" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D108">
         <v>-37.730000000000032</v>
@@ -5002,7 +5002,7 @@
         <v>142.27000000000169</v>
       </c>
       <c r="F108" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G108" s="2">
         <v>44321</v>
@@ -5020,15 +5020,15 @@
         <v>215</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B109">
         <v>2021</v>
       </c>
       <c r="C109" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D109">
         <v>-37.840000000000032</v>
@@ -5037,7 +5037,7 @@
         <v>143.92000000000189</v>
       </c>
       <c r="F109" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G109" s="2">
         <v>44301</v>
@@ -5058,15 +5058,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B110">
         <v>2021</v>
       </c>
       <c r="C110" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D110">
         <v>-38.060000000000031</v>
@@ -5075,7 +5075,7 @@
         <v>144.14000000000189</v>
       </c>
       <c r="F110" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G110" s="2">
         <v>44317</v>
@@ -5096,15 +5096,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B111">
         <v>2021</v>
       </c>
       <c r="C111" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D111">
         <v>-37.290000000000028</v>
@@ -5113,7 +5113,7 @@
         <v>143.92000000000189</v>
       </c>
       <c r="F111" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G111" s="2">
         <v>44295</v>
@@ -5131,15 +5131,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B112">
         <v>2021</v>
       </c>
       <c r="C112" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D112">
         <v>-37.730000000000032</v>
@@ -5148,7 +5148,7 @@
         <v>144.2500000000019</v>
       </c>
       <c r="F112" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G112" s="2">
         <v>44334</v>
@@ -5166,15 +5166,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B113">
         <v>2021</v>
       </c>
       <c r="C113" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D113">
         <v>-38.060000000000031</v>
@@ -5183,7 +5183,7 @@
         <v>143.3700000000018</v>
       </c>
       <c r="F113" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G113" s="2">
         <v>44293</v>
@@ -5204,15 +5204,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B114">
         <v>2021</v>
       </c>
       <c r="C114" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D114">
         <v>-37.620000000000033</v>
@@ -5221,7 +5221,7 @@
         <v>143.04000000000181</v>
       </c>
       <c r="F114" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G114" s="2">
         <v>44318</v>
@@ -5239,15 +5239,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B115">
         <v>2021</v>
       </c>
       <c r="C115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D115">
         <v>-37.400000000000027</v>
@@ -5256,7 +5256,7 @@
         <v>143.70000000000189</v>
       </c>
       <c r="F115" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G115" s="2">
         <v>44331</v>
@@ -5274,15 +5274,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B116">
         <v>2021</v>
       </c>
       <c r="C116" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D116">
         <v>-37.950000000000031</v>
@@ -5291,7 +5291,7 @@
         <v>143.92000000000189</v>
       </c>
       <c r="F116" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G116" s="2">
         <v>44294</v>
@@ -5312,15 +5312,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B117">
         <v>2021</v>
       </c>
       <c r="C117" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D117">
         <v>-37.620000000000033</v>
@@ -5329,7 +5329,7 @@
         <v>142.9300000000018</v>
       </c>
       <c r="F117" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G117" s="2">
         <v>44312</v>
@@ -5347,15 +5347,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B118">
         <v>2021</v>
       </c>
       <c r="C118" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D118">
         <v>-37.840000000000032</v>
@@ -5364,7 +5364,7 @@
         <v>142.3800000000017</v>
       </c>
       <c r="F118" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G118" s="2">
         <v>44328</v>
@@ -5382,15 +5382,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B119">
         <v>2021</v>
       </c>
       <c r="C119" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D119">
         <v>-37.730000000000032</v>
@@ -5399,7 +5399,7 @@
         <v>143.1500000000018</v>
       </c>
       <c r="F119" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G119" s="2">
         <v>44322</v>
@@ -5417,15 +5417,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B120">
         <v>2021</v>
       </c>
       <c r="C120" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D120">
         <v>-33.880000000000052</v>
@@ -5434,7 +5434,7 @@
         <v>116.97</v>
       </c>
       <c r="F120" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G120" s="2">
         <v>44301</v>
@@ -5452,15 +5452,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B121">
         <v>2021</v>
       </c>
       <c r="C121" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D121">
         <v>-33.880000000000052</v>
@@ -5469,7 +5469,7 @@
         <v>116.97</v>
       </c>
       <c r="F121" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G121" s="2">
         <v>44327</v>
@@ -5487,15 +5487,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B122">
         <v>2021</v>
       </c>
       <c r="C122" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D122">
         <v>-34.210000000000051</v>
@@ -5504,7 +5504,7 @@
         <v>118.29</v>
       </c>
       <c r="F122" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G122" s="2">
         <v>44328</v>
@@ -5522,15 +5522,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B123">
         <v>2021</v>
       </c>
       <c r="C123" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D123">
         <v>-33.880000000000052</v>
@@ -5539,7 +5539,7 @@
         <v>116.75</v>
       </c>
       <c r="F123" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G123" s="2">
         <v>44312</v>
@@ -5557,15 +5557,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B124">
         <v>2021</v>
       </c>
       <c r="C124" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D124">
         <v>-34.100000000000051</v>
@@ -5574,7 +5574,7 @@
         <v>117.08</v>
       </c>
       <c r="F124" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G124" s="2">
         <v>44329</v>
@@ -5592,15 +5592,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B125">
         <v>2021</v>
       </c>
       <c r="C125" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D125">
         <v>-34.540000000000049</v>
@@ -5609,7 +5609,7 @@
         <v>117.63</v>
       </c>
       <c r="F125" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G125" s="2">
         <v>44260</v>
@@ -5627,15 +5627,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B126">
         <v>2022</v>
       </c>
       <c r="C126" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D126">
         <v>-35.750000000000043</v>
@@ -5644,7 +5644,7 @@
         <v>146.12000000000219</v>
       </c>
       <c r="F126" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G126" s="2">
         <v>44701</v>
@@ -5665,15 +5665,15 @@
         <v>300</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B127">
         <v>2022</v>
       </c>
       <c r="C127" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D127">
         <v>-35.750000000000043</v>
@@ -5682,7 +5682,7 @@
         <v>146.12000000000219</v>
       </c>
       <c r="F127" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G127" s="2">
         <v>44692</v>
@@ -5700,15 +5700,15 @@
         <v>304</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B128">
         <v>2022</v>
       </c>
       <c r="C128" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D128">
         <v>-35.860000000000042</v>
@@ -5717,7 +5717,7 @@
         <v>146.12000000000219</v>
       </c>
       <c r="F128" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G128" s="2">
         <v>44685</v>
@@ -5735,15 +5735,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B129">
         <v>2022</v>
       </c>
       <c r="C129" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D129">
         <v>-36.080000000000041</v>
@@ -5752,7 +5752,7 @@
         <v>148.10000000000241</v>
       </c>
       <c r="F129" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G129" s="2">
         <v>44691</v>
@@ -5773,15 +5773,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B130">
         <v>2022</v>
       </c>
       <c r="C130" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D130">
         <v>-34.980000000000047</v>
@@ -5790,7 +5790,7 @@
         <v>147.4400000000023</v>
       </c>
       <c r="F130" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G130" s="2">
         <v>44682</v>
@@ -5811,15 +5811,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B131">
         <v>2022</v>
       </c>
       <c r="C131" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D131">
         <v>-35.970000000000041</v>
@@ -5828,7 +5828,7 @@
         <v>147.0000000000023</v>
       </c>
       <c r="F131" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G131" s="2">
         <v>44682</v>
@@ -5846,15 +5846,15 @@
         <v>225</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B132">
         <v>2022</v>
       </c>
       <c r="C132" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D132">
         <v>-37.180000000000042</v>
@@ -5863,7 +5863,7 @@
         <v>140.07000000000139</v>
       </c>
       <c r="F132" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G132" s="2">
         <v>44694</v>
@@ -5878,15 +5878,15 @@
         <v>161</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B133">
         <v>2022</v>
       </c>
       <c r="C133" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D133">
         <v>-37.180000000000042</v>
@@ -5895,7 +5895,7 @@
         <v>140.7300000000015</v>
       </c>
       <c r="F133" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G133" s="2">
         <v>44711</v>
@@ -5913,15 +5913,15 @@
         <v>229</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B134">
         <v>2022</v>
       </c>
       <c r="C134" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D134">
         <v>-37.510000000000034</v>
@@ -5930,7 +5930,7 @@
         <v>140.7300000000015</v>
       </c>
       <c r="F134" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G134" s="2">
         <v>44706</v>
@@ -5948,15 +5948,15 @@
         <v>222</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B135">
         <v>2022</v>
       </c>
       <c r="C135" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D135">
         <v>-37.180000000000042</v>
@@ -5965,7 +5965,7 @@
         <v>140.29000000000141</v>
       </c>
       <c r="F135" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G135" s="2">
         <v>44709</v>
@@ -5983,15 +5983,15 @@
         <v>203</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B136">
         <v>2022</v>
       </c>
       <c r="C136" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D136">
         <v>-37.180000000000042</v>
@@ -6000,7 +6000,7 @@
         <v>140.1800000000014</v>
       </c>
       <c r="F136" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G136" s="2">
         <v>44698</v>
@@ -6018,15 +6018,15 @@
         <v>222</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B137">
         <v>2022</v>
       </c>
       <c r="C137" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D137">
         <v>-37.400000000000027</v>
@@ -6035,7 +6035,7 @@
         <v>140.1800000000014</v>
       </c>
       <c r="F137" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G137" s="2">
         <v>44699</v>
@@ -6053,15 +6053,15 @@
         <v>178</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B138">
         <v>2022</v>
       </c>
       <c r="C138" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D138">
         <v>-37.510000000000034</v>
@@ -6070,7 +6070,7 @@
         <v>140.29000000000141</v>
       </c>
       <c r="F138" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G138" s="2">
         <v>44704</v>
@@ -6088,15 +6088,15 @@
         <v>178</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B139">
         <v>2022</v>
       </c>
       <c r="C139" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D139">
         <v>-37.180000000000042</v>
@@ -6105,7 +6105,7 @@
         <v>140.84000000000151</v>
       </c>
       <c r="F139" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G139" s="2">
         <v>44709</v>
@@ -6123,15 +6123,15 @@
         <v>254</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B140">
         <v>2022</v>
       </c>
       <c r="C140" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D140">
         <v>-37.290000000000028</v>
@@ -6140,7 +6140,7 @@
         <v>140.7300000000015</v>
       </c>
       <c r="F140" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G140" s="2">
         <v>44699</v>
@@ -6158,15 +6158,15 @@
         <v>254</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B141">
         <v>2022</v>
       </c>
       <c r="C141" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D141">
         <v>-37.400000000000027</v>
@@ -6175,7 +6175,7 @@
         <v>140.40000000000151</v>
       </c>
       <c r="F141" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G141" s="2">
         <v>44682</v>
@@ -6193,15 +6193,15 @@
         <v>229</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B142">
         <v>2022</v>
       </c>
       <c r="C142" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D142">
         <v>-42.02000000000001</v>
@@ -6210,7 +6210,7 @@
         <v>147.55000000000231</v>
       </c>
       <c r="F142" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G142" s="2">
         <v>44630</v>
@@ -6228,15 +6228,15 @@
         <v>165</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B143">
         <v>2022</v>
       </c>
       <c r="C143" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D143">
         <v>-41.690000000000012</v>
@@ -6245,7 +6245,7 @@
         <v>147.33000000000229</v>
       </c>
       <c r="F143" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G143" s="2">
         <v>44678</v>
@@ -6263,15 +6263,15 @@
         <v>200</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B144">
         <v>2022</v>
       </c>
       <c r="C144" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D144">
         <v>-41.470000000000013</v>
@@ -6280,7 +6280,7 @@
         <v>146.89000000000229</v>
       </c>
       <c r="F144" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G144" s="2">
         <v>44678</v>
@@ -6298,15 +6298,15 @@
         <v>125</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B145">
         <v>2022</v>
       </c>
       <c r="C145" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D145">
         <v>-41.800000000000011</v>
@@ -6315,7 +6315,7 @@
         <v>147.2200000000023</v>
       </c>
       <c r="F145" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G145" s="2">
         <v>44682</v>
@@ -6333,15 +6333,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B146">
         <v>2022</v>
       </c>
       <c r="C146" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D146">
         <v>-41.690000000000012</v>
@@ -6350,7 +6350,7 @@
         <v>147.11000000000229</v>
       </c>
       <c r="F146" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G146" s="2">
         <v>44690</v>
@@ -6368,15 +6368,15 @@
         <v>178</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B147">
         <v>2022</v>
       </c>
       <c r="C147" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D147">
         <v>-41.800000000000011</v>
@@ -6385,7 +6385,7 @@
         <v>147.4400000000023</v>
       </c>
       <c r="F147" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G147" s="2">
         <v>44743</v>
@@ -6403,15 +6403,15 @@
         <v>125</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B148">
         <v>2022</v>
       </c>
       <c r="C148" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D148">
         <v>-41.910000000000011</v>
@@ -6420,7 +6420,7 @@
         <v>147.4400000000023</v>
       </c>
       <c r="F148" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G148" s="2">
         <v>44664</v>
@@ -6438,15 +6438,15 @@
         <v>240</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B149">
         <v>2022</v>
       </c>
       <c r="C149" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D149">
         <v>-41.910000000000011</v>
@@ -6455,7 +6455,7 @@
         <v>147.55000000000231</v>
       </c>
       <c r="F149" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G149" s="2">
         <v>44628</v>
@@ -6473,15 +6473,15 @@
         <v>240</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B150">
         <v>2022</v>
       </c>
       <c r="C150" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D150">
         <v>-36.630000000000038</v>
@@ -6490,7 +6490,7 @@
         <v>145.3500000000021</v>
       </c>
       <c r="F150" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G150" s="2">
         <v>44682</v>
@@ -6508,15 +6508,15 @@
         <v>300</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B151">
         <v>2022</v>
       </c>
       <c r="C151" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D151">
         <v>-36.080000000000041</v>
@@ -6525,7 +6525,7 @@
         <v>146.45000000000221</v>
       </c>
       <c r="F151" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G151" s="2">
         <v>44673</v>
@@ -6543,15 +6543,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B152">
         <v>2022</v>
       </c>
       <c r="C152" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D152">
         <v>-37.400000000000027</v>
@@ -6560,7 +6560,7 @@
         <v>143.81000000000191</v>
       </c>
       <c r="F152" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G152" s="2">
         <v>44684</v>
@@ -6578,15 +6578,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B153">
         <v>2022</v>
       </c>
       <c r="C153" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D153">
         <v>-38.17000000000003</v>
@@ -6595,7 +6595,7 @@
         <v>144.03000000000191</v>
       </c>
       <c r="F153" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G153" s="2">
         <v>44665</v>
@@ -6616,15 +6616,15 @@
         <v>300</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B154">
         <v>2022</v>
       </c>
       <c r="C154" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D154">
         <v>-37.400000000000027</v>
@@ -6633,7 +6633,7 @@
         <v>142.3800000000017</v>
       </c>
       <c r="F154" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G154" s="2">
         <v>44689</v>
@@ -6651,15 +6651,15 @@
         <v>300</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B155">
         <v>2022</v>
       </c>
       <c r="C155" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D155">
         <v>-37.730000000000032</v>
@@ -6668,7 +6668,7 @@
         <v>142.05000000000169</v>
       </c>
       <c r="F155" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G155" s="2">
         <v>44673</v>
@@ -6686,15 +6686,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B156">
         <v>2022</v>
       </c>
       <c r="C156" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D156">
         <v>-37.840000000000032</v>
@@ -6703,7 +6703,7 @@
         <v>142.49000000000169</v>
       </c>
       <c r="F156" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G156" s="2">
         <v>44682</v>
@@ -6721,15 +6721,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B157">
         <v>2022</v>
       </c>
       <c r="C157" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D157">
         <v>-38.060000000000031</v>
@@ -6738,7 +6738,7 @@
         <v>142.3800000000017</v>
       </c>
       <c r="F157" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G157" s="2">
         <v>44669</v>
@@ -6756,15 +6756,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B158">
         <v>2022</v>
       </c>
       <c r="C158" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D158">
         <v>-37.730000000000032</v>
@@ -6773,7 +6773,7 @@
         <v>142.27000000000169</v>
       </c>
       <c r="F158" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G158" s="2">
         <v>44694</v>
@@ -6791,15 +6791,15 @@
         <v>225</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B159">
         <v>2022</v>
       </c>
       <c r="C159" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D159">
         <v>-37.840000000000032</v>
@@ -6808,7 +6808,7 @@
         <v>142.1600000000017</v>
       </c>
       <c r="F159" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G159" s="2">
         <v>44673</v>
@@ -6826,15 +6826,15 @@
         <v>200</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B160">
         <v>2022</v>
       </c>
       <c r="C160" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D160">
         <v>-37.950000000000031</v>
@@ -6843,7 +6843,7 @@
         <v>143.92000000000189</v>
       </c>
       <c r="F160" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G160" s="2">
         <v>44664</v>
@@ -6861,15 +6861,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B161">
         <v>2022</v>
       </c>
       <c r="C161" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D161">
         <v>-38.17000000000003</v>
@@ -6878,7 +6878,7 @@
         <v>143.48000000000181</v>
       </c>
       <c r="F161" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G161" s="2">
         <v>44690</v>
@@ -6896,15 +6896,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B162">
         <v>2022</v>
       </c>
       <c r="C162" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D162">
         <v>-38.060000000000031</v>
@@ -6913,7 +6913,7 @@
         <v>143.92000000000189</v>
       </c>
       <c r="F162" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G162" s="2">
         <v>44667</v>
@@ -6931,15 +6931,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B163">
         <v>2022</v>
       </c>
       <c r="C163" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D163">
         <v>-37.840000000000032</v>
@@ -6948,7 +6948,7 @@
         <v>143.70000000000189</v>
       </c>
       <c r="F163" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G163" s="2">
         <v>44666</v>
@@ -6966,15 +6966,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B164">
         <v>2022</v>
       </c>
       <c r="C164" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D164">
         <v>-38.060000000000031</v>
@@ -6983,7 +6983,7 @@
         <v>143.3700000000018</v>
       </c>
       <c r="F164" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G164" s="2">
         <v>44686</v>
@@ -7004,15 +7004,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B165">
         <v>2022</v>
       </c>
       <c r="C165" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D165">
         <v>-37.730000000000032</v>
@@ -7021,7 +7021,7 @@
         <v>142.6000000000017</v>
       </c>
       <c r="F165" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G165" s="2">
         <v>44679</v>
@@ -7039,15 +7039,15 @@
         <v>175</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B166">
         <v>2022</v>
       </c>
       <c r="C166" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D166">
         <v>-37.400000000000027</v>
@@ -7056,7 +7056,7 @@
         <v>142.9300000000018</v>
       </c>
       <c r="F166" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G166" s="2">
         <v>44674</v>
@@ -7077,15 +7077,15 @@
         <v>247</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B167">
         <v>2022</v>
       </c>
       <c r="C167" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D167">
         <v>-37.840000000000032</v>
@@ -7094,7 +7094,7 @@
         <v>142.82000000000181</v>
       </c>
       <c r="F167" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G167" s="2">
         <v>44700</v>
@@ -7112,15 +7112,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B168">
         <v>2022</v>
       </c>
       <c r="C168" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D168">
         <v>-36.410000000000039</v>
@@ -7129,7 +7129,7 @@
         <v>141.39000000000161</v>
       </c>
       <c r="F168" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G168" s="2">
         <v>44682</v>
@@ -7147,15 +7147,15 @@
         <v>299</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B169">
         <v>2022</v>
       </c>
       <c r="C169" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D169">
         <v>-37.620000000000033</v>
@@ -7164,7 +7164,7 @@
         <v>143.04000000000181</v>
       </c>
       <c r="F169" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G169" s="2">
         <v>44655</v>
@@ -7182,15 +7182,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B170">
         <v>2022</v>
       </c>
       <c r="C170" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D170">
         <v>-37.290000000000028</v>
@@ -7199,7 +7199,7 @@
         <v>143.92000000000189</v>
       </c>
       <c r="F170" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G170" s="2">
         <v>44658</v>
@@ -7217,15 +7217,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B171">
         <v>2022</v>
       </c>
       <c r="C171" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D171">
         <v>-34.430000000000049</v>
@@ -7234,7 +7234,7 @@
         <v>117.41</v>
       </c>
       <c r="F171" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G171" s="2">
         <v>44697</v>
@@ -7252,15 +7252,15 @@
         <v>165</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B172">
         <v>2022</v>
       </c>
       <c r="C172" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D172">
         <v>-34.32000000000005</v>
@@ -7269,7 +7269,7 @@
         <v>118.18</v>
       </c>
       <c r="F172" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G172" s="2">
         <v>44682</v>
@@ -7287,15 +7287,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B173">
         <v>2022</v>
       </c>
       <c r="C173" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D173">
         <v>-34.210000000000051</v>
@@ -7304,7 +7304,7 @@
         <v>118.95</v>
       </c>
       <c r="F173" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G173" s="2">
         <v>44698</v>
@@ -7322,15 +7322,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B174">
         <v>2022</v>
       </c>
       <c r="C174" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D174">
         <v>-34.540000000000049</v>
@@ -7339,7 +7339,7 @@
         <v>117.52</v>
       </c>
       <c r="F174" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G174" s="2">
         <v>44682</v>
@@ -7357,15 +7357,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B175">
         <v>2022</v>
       </c>
       <c r="C175" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D175">
         <v>-33.880000000000052</v>
@@ -7374,7 +7374,7 @@
         <v>116.75</v>
       </c>
       <c r="F175" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G175" s="2">
         <v>44702</v>
@@ -7392,15 +7392,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B176">
         <v>2022</v>
       </c>
       <c r="C176" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D176">
         <v>-33.880000000000052</v>
@@ -7409,7 +7409,7 @@
         <v>116.97</v>
       </c>
       <c r="F176" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G176" s="2">
         <v>44642</v>
@@ -7427,15 +7427,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B177">
         <v>2022</v>
       </c>
       <c r="C177" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D177">
         <v>-34.540000000000049</v>
@@ -7444,7 +7444,7 @@
         <v>117.3</v>
       </c>
       <c r="F177" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G177" s="2">
         <v>44654</v>
@@ -7462,15 +7462,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B178">
         <v>2022</v>
       </c>
       <c r="C178" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D178">
         <v>-34.540000000000049</v>
@@ -7479,7 +7479,7 @@
         <v>117.41</v>
       </c>
       <c r="F178" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G178" s="2">
         <v>44656</v>
@@ -7497,15 +7497,15 @@
         <v>114</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B179">
         <v>2023</v>
       </c>
       <c r="C179" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D179">
         <v>-35.750000000000043</v>
@@ -7514,7 +7514,7 @@
         <v>146.12000000000219</v>
       </c>
       <c r="F179" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G179" s="2">
         <v>45060</v>
@@ -7532,15 +7532,15 @@
         <v>330</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B180">
         <v>2023</v>
       </c>
       <c r="C180" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D180">
         <v>-35.860000000000042</v>
@@ -7549,7 +7549,7 @@
         <v>146.12000000000219</v>
       </c>
       <c r="F180" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G180" s="2">
         <v>45055</v>
@@ -7567,15 +7567,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B181">
         <v>2023</v>
       </c>
       <c r="C181" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D181">
         <v>-34.980000000000047</v>
@@ -7584,7 +7584,7 @@
         <v>147.4400000000023</v>
       </c>
       <c r="F181" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G181" s="2">
         <v>45045</v>
@@ -7605,15 +7605,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B182">
         <v>2023</v>
       </c>
       <c r="C182" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D182">
         <v>-35.860000000000042</v>
@@ -7622,7 +7622,7 @@
         <v>147.0000000000023</v>
       </c>
       <c r="F182" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G182" s="2">
         <v>45059</v>
@@ -7640,15 +7640,15 @@
         <v>225</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B183">
         <v>2023</v>
       </c>
       <c r="C183" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D183">
         <v>-35.860000000000042</v>
@@ -7657,7 +7657,7 @@
         <v>146.89000000000229</v>
       </c>
       <c r="F183" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G183" s="2">
         <v>45001</v>
@@ -7675,15 +7675,15 @@
         <v>225</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B184">
         <v>2023</v>
       </c>
       <c r="C184" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D184">
         <v>-35.860000000000042</v>
@@ -7692,7 +7692,7 @@
         <v>146.6700000000022</v>
       </c>
       <c r="F184" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G184" s="2">
         <v>45061</v>
@@ -7710,15 +7710,15 @@
         <v>300</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B185">
         <v>2023</v>
       </c>
       <c r="C185" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D185">
         <v>-35.640000000000043</v>
@@ -7727,7 +7727,7 @@
         <v>147.11000000000229</v>
       </c>
       <c r="F185" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G185" s="2">
         <v>45064</v>
@@ -7745,15 +7745,15 @@
         <v>185</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B186">
         <v>2023</v>
       </c>
       <c r="C186" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D186">
         <v>-36.960000000000043</v>
@@ -7762,7 +7762,7 @@
         <v>140.95000000000149</v>
       </c>
       <c r="F186" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G186" s="2">
         <v>45057</v>
@@ -7780,15 +7780,15 @@
         <v>254</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B187">
         <v>2023</v>
       </c>
       <c r="C187" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D187">
         <v>-37.180000000000042</v>
@@ -7797,7 +7797,7 @@
         <v>140.7300000000015</v>
       </c>
       <c r="F187" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G187" s="2">
         <v>45056</v>
@@ -7815,15 +7815,15 @@
         <v>254</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B188">
         <v>2023</v>
       </c>
       <c r="C188" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D188">
         <v>-37.180000000000042</v>
@@ -7832,7 +7832,7 @@
         <v>140.7300000000015</v>
       </c>
       <c r="F188" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G188" s="2">
         <v>45060</v>
@@ -7850,15 +7850,15 @@
         <v>305</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B189">
         <v>2023</v>
       </c>
       <c r="C189" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D189">
         <v>-37.180000000000042</v>
@@ -7867,7 +7867,7 @@
         <v>140.29000000000141</v>
       </c>
       <c r="F189" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G189" s="2">
         <v>45062</v>
@@ -7885,15 +7885,15 @@
         <v>178</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B190">
         <v>2023</v>
       </c>
       <c r="C190" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D190">
         <v>-37.180000000000042</v>
@@ -7902,7 +7902,7 @@
         <v>140.1800000000014</v>
       </c>
       <c r="F190" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G190" s="2">
         <v>45061</v>
@@ -7920,15 +7920,15 @@
         <v>178</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B191">
         <v>2023</v>
       </c>
       <c r="C191" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D191">
         <v>-37.510000000000034</v>
@@ -7937,7 +7937,7 @@
         <v>140.29000000000141</v>
       </c>
       <c r="F191" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G191" s="2">
         <v>45064</v>
@@ -7955,15 +7955,15 @@
         <v>178</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B192">
         <v>2023</v>
       </c>
       <c r="C192" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D192">
         <v>-37.510000000000034</v>
@@ -7972,7 +7972,7 @@
         <v>140.29000000000141</v>
       </c>
       <c r="F192" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G192" s="2">
         <v>45050</v>
@@ -7990,15 +7990,15 @@
         <v>178</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B193">
         <v>2023</v>
       </c>
       <c r="C193" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D193">
         <v>-37.510000000000034</v>
@@ -8007,7 +8007,7 @@
         <v>140.40000000000151</v>
       </c>
       <c r="F193" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G193" s="2">
         <v>45063</v>
@@ -8025,15 +8025,15 @@
         <v>178</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B194">
         <v>2023</v>
       </c>
       <c r="C194" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D194">
         <v>-37.510000000000034</v>
@@ -8042,7 +8042,7 @@
         <v>140.29000000000141</v>
       </c>
       <c r="F194" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G194" s="2">
         <v>45061</v>
@@ -8060,15 +8060,15 @@
         <v>229</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B195">
         <v>2023</v>
       </c>
       <c r="C195" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D195">
         <v>-37.510000000000034</v>
@@ -8077,7 +8077,7 @@
         <v>140.40000000000151</v>
       </c>
       <c r="F195" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G195" s="2">
         <v>45047</v>
@@ -8095,15 +8095,15 @@
         <v>229</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B196">
         <v>2023</v>
       </c>
       <c r="C196" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D196">
         <v>-42.02000000000001</v>
@@ -8112,7 +8112,7 @@
         <v>147.55000000000231</v>
       </c>
       <c r="F196" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G196" s="2">
         <v>45070</v>
@@ -8130,15 +8130,15 @@
         <v>165</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B197">
         <v>2023</v>
       </c>
       <c r="C197" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D197">
         <v>-42.13000000000001</v>
@@ -8147,7 +8147,7 @@
         <v>147.33000000000229</v>
       </c>
       <c r="F197" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G197" s="2">
         <v>44999</v>
@@ -8165,15 +8165,15 @@
         <v>190</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B198">
         <v>2023</v>
       </c>
       <c r="C198" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D198">
         <v>-41.910000000000011</v>
@@ -8182,7 +8182,7 @@
         <v>147.55000000000231</v>
       </c>
       <c r="F198" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G198" s="2">
         <v>45047</v>
@@ -8200,15 +8200,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B199">
         <v>2023</v>
       </c>
       <c r="C199" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D199">
         <v>-41.690000000000012</v>
@@ -8217,7 +8217,7 @@
         <v>147.33000000000229</v>
       </c>
       <c r="F199" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G199" s="2">
         <v>45047</v>
@@ -8235,15 +8235,15 @@
         <v>165</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B200">
         <v>2023</v>
       </c>
       <c r="C200" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D200">
         <v>-41.470000000000013</v>
@@ -8252,7 +8252,7 @@
         <v>146.89000000000229</v>
       </c>
       <c r="F200" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G200" s="2">
         <v>45069</v>
@@ -8270,15 +8270,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B201">
         <v>2023</v>
       </c>
       <c r="C201" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D201">
         <v>-41.690000000000012</v>
@@ -8287,7 +8287,7 @@
         <v>147.11000000000229</v>
       </c>
       <c r="F201" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G201" s="2">
         <v>45051</v>
@@ -8305,15 +8305,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B202">
         <v>2023</v>
       </c>
       <c r="C202" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D202">
         <v>-36.630000000000038</v>
@@ -8322,7 +8322,7 @@
         <v>145.3500000000021</v>
       </c>
       <c r="F202" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G202" s="2">
         <v>45051</v>
@@ -8340,15 +8340,15 @@
         <v>300</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B203">
         <v>2023</v>
       </c>
       <c r="C203" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D203">
         <v>-38.17000000000003</v>
@@ -8357,7 +8357,7 @@
         <v>144.03000000000191</v>
       </c>
       <c r="F203" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G203" s="2">
         <v>45039</v>
@@ -8375,15 +8375,15 @@
         <v>300</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B204">
         <v>2023</v>
       </c>
       <c r="C204" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D204">
         <v>-38.060000000000031</v>
@@ -8392,7 +8392,7 @@
         <v>143.3700000000018</v>
       </c>
       <c r="F204" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G204" s="2">
         <v>45046</v>
@@ -8413,15 +8413,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B205">
         <v>2023</v>
       </c>
       <c r="C205" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D205">
         <v>-38.060000000000031</v>
@@ -8430,7 +8430,7 @@
         <v>143.48000000000181</v>
       </c>
       <c r="F205" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G205" s="2">
         <v>45057</v>
@@ -8448,15 +8448,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B206">
         <v>2023</v>
       </c>
       <c r="C206" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D206">
         <v>-37.840000000000032</v>
@@ -8465,7 +8465,7 @@
         <v>143.92000000000189</v>
       </c>
       <c r="F206" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G206" s="2">
         <v>45015</v>
@@ -8483,15 +8483,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B207">
         <v>2023</v>
       </c>
       <c r="C207" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D207">
         <v>-37.510000000000034</v>
@@ -8500,7 +8500,7 @@
         <v>142.9300000000018</v>
       </c>
       <c r="F207" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G207" s="2">
         <v>45022</v>
@@ -8521,15 +8521,15 @@
         <v>190</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B208">
         <v>2023</v>
       </c>
       <c r="C208" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D208">
         <v>-37.290000000000028</v>
@@ -8538,7 +8538,7 @@
         <v>143.92000000000189</v>
       </c>
       <c r="F208" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G208" s="2">
         <v>45036</v>
@@ -8559,15 +8559,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B209">
         <v>2023</v>
       </c>
       <c r="C209" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D209">
         <v>-37.950000000000031</v>
@@ -8576,7 +8576,7 @@
         <v>143.92000000000189</v>
       </c>
       <c r="F209" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G209" s="2">
         <v>45058</v>
@@ -8597,15 +8597,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B210">
         <v>2023</v>
       </c>
       <c r="C210" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D210">
         <v>-38.17000000000003</v>
@@ -8614,7 +8614,7 @@
         <v>143.70000000000189</v>
       </c>
       <c r="F210" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G210" s="2">
         <v>45037</v>
@@ -8632,15 +8632,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B211">
         <v>2023</v>
       </c>
       <c r="C211" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D211">
         <v>-37.950000000000031</v>
@@ -8649,7 +8649,7 @@
         <v>143.70000000000189</v>
       </c>
       <c r="F211" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G211" s="2">
         <v>45031</v>
@@ -8667,15 +8667,15 @@
         <v>300</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B212">
         <v>2023</v>
       </c>
       <c r="C212" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D212">
         <v>-37.950000000000031</v>
@@ -8684,7 +8684,7 @@
         <v>143.81000000000191</v>
       </c>
       <c r="F212" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G212" s="2">
         <v>45058</v>
@@ -8702,15 +8702,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B213">
         <v>2023</v>
       </c>
       <c r="C213" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D213">
         <v>-37.840000000000032</v>
@@ -8719,7 +8719,7 @@
         <v>143.48000000000181</v>
       </c>
       <c r="F213" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G213" s="2">
         <v>45063</v>
@@ -8737,15 +8737,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B214">
         <v>2023</v>
       </c>
       <c r="C214" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D214">
         <v>-37.730000000000032</v>
@@ -8754,7 +8754,7 @@
         <v>142.71000000000171</v>
       </c>
       <c r="F214" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G214" s="2">
         <v>45011</v>
@@ -8772,15 +8772,15 @@
         <v>178</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B215">
         <v>2023</v>
       </c>
       <c r="C215" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D215">
         <v>-37.840000000000032</v>
@@ -8789,7 +8789,7 @@
         <v>142.49000000000169</v>
       </c>
       <c r="F215" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G215" s="2">
         <v>45068</v>
@@ -8807,15 +8807,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B216">
         <v>2023</v>
       </c>
       <c r="C216" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D216">
         <v>-37.730000000000032</v>
@@ -8824,7 +8824,7 @@
         <v>142.27000000000169</v>
       </c>
       <c r="F216" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G216" s="2">
         <v>45039</v>
@@ -8842,15 +8842,15 @@
         <v>200</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B217">
         <v>2023</v>
       </c>
       <c r="C217" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D217">
         <v>-37.840000000000032</v>
@@ -8859,7 +8859,7 @@
         <v>142.05000000000169</v>
       </c>
       <c r="F217" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G217" s="2">
         <v>45034</v>
@@ -8877,15 +8877,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B218">
         <v>2023</v>
       </c>
       <c r="C218" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D218">
         <v>-37.950000000000031</v>
@@ -8894,7 +8894,7 @@
         <v>142.49000000000169</v>
       </c>
       <c r="F218" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G218" s="2">
         <v>45047</v>
@@ -8912,15 +8912,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B219">
         <v>2023</v>
       </c>
       <c r="C219" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D219">
         <v>-37.950000000000031</v>
@@ -8929,7 +8929,7 @@
         <v>142.3800000000017</v>
       </c>
       <c r="F219" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G219" s="2">
         <v>45056</v>
@@ -8947,15 +8947,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B220">
         <v>2023</v>
       </c>
       <c r="C220" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D220">
         <v>-37.620000000000033</v>
@@ -8964,7 +8964,7 @@
         <v>143.04000000000181</v>
       </c>
       <c r="F220" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G220" s="2">
         <v>45056</v>
@@ -8982,15 +8982,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B221">
         <v>2023</v>
       </c>
       <c r="C221" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D221">
         <v>-36.30000000000004</v>
@@ -8999,7 +8999,7 @@
         <v>141.50000000000159</v>
       </c>
       <c r="F221" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G221" s="2">
         <v>45047</v>
@@ -9017,15 +9017,15 @@
         <v>300</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B222">
         <v>2023</v>
       </c>
       <c r="C222" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D222">
         <v>-38.17000000000003</v>
@@ -9034,7 +9034,7 @@
         <v>143.92000000000189</v>
       </c>
       <c r="F222" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G222" s="2">
         <v>45036</v>
@@ -9052,15 +9052,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B223">
         <v>2023</v>
       </c>
       <c r="C223" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D223">
         <v>-37.840000000000032</v>
@@ -9069,7 +9069,7 @@
         <v>142.9300000000018</v>
       </c>
       <c r="F223" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G223" s="2">
         <v>45036</v>
@@ -9087,15 +9087,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B224">
         <v>2023</v>
       </c>
       <c r="C224" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D224">
         <v>-37.400000000000027</v>
@@ -9104,7 +9104,7 @@
         <v>143.70000000000189</v>
       </c>
       <c r="F224" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G224" s="2">
         <v>45021</v>
@@ -9122,15 +9122,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B225">
         <v>2023</v>
       </c>
       <c r="C225" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D225">
         <v>-37.400000000000027</v>
@@ -9139,7 +9139,7 @@
         <v>142.3800000000017</v>
       </c>
       <c r="F225" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G225" s="2">
         <v>45060</v>
@@ -9157,15 +9157,15 @@
         <v>300</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B226">
         <v>2023</v>
       </c>
       <c r="C226" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D226">
         <v>-33.880000000000052</v>
@@ -9174,7 +9174,7 @@
         <v>116.75</v>
       </c>
       <c r="F226" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G226" s="2">
         <v>45057</v>
@@ -9189,15 +9189,15 @@
         <v>127</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B227">
         <v>2023</v>
       </c>
       <c r="C227" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D227">
         <v>-33.990000000000052</v>
@@ -9206,7 +9206,7 @@
         <v>116.64</v>
       </c>
       <c r="F227" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G227" s="2">
         <v>45028</v>
@@ -9221,15 +9221,15 @@
         <v>176</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B228">
         <v>2023</v>
       </c>
       <c r="C228" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D228">
         <v>-33.880000000000052</v>
@@ -9238,7 +9238,7 @@
         <v>116.97</v>
       </c>
       <c r="F228" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G228" s="2">
         <v>45071</v>
@@ -9253,15 +9253,15 @@
         <v>107</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B229">
         <v>2023</v>
       </c>
       <c r="C229" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D229">
         <v>-33.880000000000052</v>
@@ -9270,7 +9270,7 @@
         <v>116.97</v>
       </c>
       <c r="F229" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G229" s="2">
         <v>45059</v>
@@ -9285,15 +9285,15 @@
         <v>128</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B230">
         <v>2023</v>
       </c>
       <c r="C230" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D230">
         <v>-33.990000000000052</v>
@@ -9302,7 +9302,7 @@
         <v>116.75</v>
       </c>
       <c r="F230" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G230" s="2">
         <v>45074</v>
